--- a/input_files/discount_factors_2022-10-05.xlsx
+++ b/input_files/discount_factors_2022-10-05.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shared\finance_course\libro\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1AF2B3-1B70-4184-8467-8B98D778422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557F9D46-A361-4B7B-BEAB-9002DB46B121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="-13815" windowWidth="26220" windowHeight="14640" xr2:uid="{E62F9F65-41F9-4893-AC09-D035834E6650}"/>
+    <workbookView xWindow="11805" yWindow="-14340" windowWidth="25950" windowHeight="15555" xr2:uid="{E62F9F65-41F9-4893-AC09-D035834E6650}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +34,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>months</t>
   </si>
   <si>
     <t>dfs</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>15M</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>21M</t>
+  </si>
+  <si>
+    <t>2Y</t>
+  </si>
+  <si>
+    <t>3Y</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>8Y</t>
+  </si>
+  <si>
+    <t>9Y</t>
+  </si>
+  <si>
+    <t>10Y</t>
+  </si>
+  <si>
+    <t>11Y</t>
+  </si>
+  <si>
+    <t>12Y</t>
+  </si>
+  <si>
+    <t>15Y</t>
+  </si>
+  <si>
+    <t>20Y</t>
+  </si>
+  <si>
+    <t>25Y</t>
+  </si>
+  <si>
+    <t>30Y</t>
+  </si>
+  <si>
+    <t>40Y</t>
+  </si>
+  <si>
+    <t>50Y</t>
+  </si>
+  <si>
+    <t>60Y</t>
   </si>
 </sst>
 </file>
@@ -398,7 +497,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,264 +511,264 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0.99929627398767495</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>0.99816521646738599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>0.99661839416939502</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.99506400851701005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0.9933225902217</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0.99103495812353204</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.98921968290662299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0.98712000673135702</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0.98499081797809995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>0.98274809174849498</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0.98047122374821205</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0.97814183507779895</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>15</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0.97155439984607395</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>18</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0.96526216367307005</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>21</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>0.95898365674686203</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>24</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>0.95290404830188402</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>36</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0.92958733351710898</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>48</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>0.90631929120438504</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>60</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>0.88255675578663795</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>72</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>0.85913115938460205</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>84</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>0.83617620726448405</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>96</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>0.81309075951905596</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>108</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>0.79013959991816995</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>120</v>
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0.76710530723356096</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>132</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>0.74444818672074997</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>144</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>0.72246515976972203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>180</v>
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0.66434874525363097</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>240</v>
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0.59879750008825605</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>300</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>0.55509769865825198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>360</v>
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>0.52076984243366897</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>480</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>0.45722985881699302</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>600</v>
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>0.402635857901113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>720</v>
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>0.36293112751884499</v>

--- a/input_files/discount_factors_2022-10-05.xlsx
+++ b/input_files/discount_factors_2022-10-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shared\finance_course\libro\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1AF2B3-1B70-4184-8467-8B98D778422A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ACBFFF-F091-4F4B-AC6A-3C78E67F4F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="-13815" windowWidth="26220" windowHeight="14640" xr2:uid="{E62F9F65-41F9-4893-AC09-D035834E6650}"/>
+    <workbookView xWindow="-14430" yWindow="-15345" windowWidth="20235" windowHeight="14400" xr2:uid="{E62F9F65-41F9-4893-AC09-D035834E6650}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>months</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>dfs</t>
+  </si>
+  <si>
+    <t>maturities</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>15M</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>21M</t>
+  </si>
+  <si>
+    <t>24M</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>48M</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>72M</t>
+  </si>
+  <si>
+    <t>84M</t>
+  </si>
+  <si>
+    <t>96M</t>
+  </si>
+  <si>
+    <t>108M</t>
+  </si>
+  <si>
+    <t>120M</t>
+  </si>
+  <si>
+    <t>132M</t>
+  </si>
+  <si>
+    <t>144M</t>
+  </si>
+  <si>
+    <t>180M</t>
+  </si>
+  <si>
+    <t>240M</t>
+  </si>
+  <si>
+    <t>300M</t>
+  </si>
+  <si>
+    <t>360M</t>
+  </si>
+  <si>
+    <t>480M</t>
+  </si>
+  <si>
+    <t>600M</t>
+  </si>
+  <si>
+    <t>720M</t>
   </si>
 </sst>
 </file>
@@ -398,278 +497,281 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0.99929627398767495</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>0.99816521646738599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>0.99661839416939502</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.99506400851701005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0.9933225902217</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0.99103495812353204</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0.98921968290662299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0.98712000673135702</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0.98499081797809995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>0.98274809174849498</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0.98047122374821205</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0.97814183507779895</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>15</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0.97155439984607395</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>18</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0.96526216367307005</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>21</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>0.95898365674686203</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>24</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>0.95290404830188402</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>36</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0.92958733351710898</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>48</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>0.90631929120438504</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>60</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>0.88255675578663795</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>72</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>0.85913115938460205</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>84</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>0.83617620726448405</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>96</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>0.81309075951905596</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>108</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>0.79013959991816995</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>120</v>
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0.76710530723356096</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>132</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>0.74444818672074997</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>144</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>0.72246515976972203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>180</v>
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0.66434874525363097</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>240</v>
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0.59879750008825605</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>300</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>0.55509769865825198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>360</v>
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>0.52076984243366897</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>480</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>0.45722985881699302</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>600</v>
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>0.402635857901113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>720</v>
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>0.36293112751884499</v>
